--- a/data/trans_orig/P36B13_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_2023-Habitat-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+          <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>44,27%</t>
+          <t>44,22%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>49,72%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>45,31%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>26,34%</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,16%</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -1121,19 +1121,19 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>417</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>210372</v>
+        <v>210373</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>33,84%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>37,56%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>44,63%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>43,22%</t>
+          <t>43,16%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>26,63%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>991</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>590159</v>
+        <v>590160</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>26,49%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,07%</t>
+          <t>43,03%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>40,61%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>45,8%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>43,78%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>28,67%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,41%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>13,26%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35,6%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>62,85%</t>
+          <t>63,23%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>52,32%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>39,46%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>25,08%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,49%</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>34,06%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>37,44%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>27,86%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,89%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>34,45%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>39,45%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>25,82%</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
         <v>8721</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>7178572</v>
+        <v>7178571</v>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
